--- a/data/trans_dic/P68-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P68-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.4261314993750436</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.1238242097719781</v>
+        <v>0.1238242097719782</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.2602033242568361</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1945928689058916</v>
+        <v>0.1897015720071334</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2380597712642225</v>
+        <v>0.2436881519133197</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3391710894097531</v>
+        <v>0.3318983431696617</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.08409488053746636</v>
+        <v>0.08480610216569823</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1873807965371355</v>
+        <v>0.1794593496904697</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2508382679741308</v>
+        <v>0.2463028477759031</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3157461308973922</v>
+        <v>0.3149915390033021</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.0760760646505108</v>
+        <v>0.07393207434461845</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2113447956967309</v>
+        <v>0.2061839350152245</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2646525484869314</v>
+        <v>0.2722539637482676</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3545177130928742</v>
+        <v>0.3459738804152857</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.08972614792006346</v>
+        <v>0.08736705133920322</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3394372412054567</v>
+        <v>0.3346418906450562</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.405770006625925</v>
+        <v>0.4148273484303509</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.526463201841641</v>
+        <v>0.5191237378610021</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1721277308574383</v>
+        <v>0.1731329942848996</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3526891282909113</v>
+        <v>0.3455732938419507</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.461040404874697</v>
+        <v>0.4623468560601764</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5180903649036495</v>
+        <v>0.5220639923481523</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1504646868665231</v>
+        <v>0.1486474488378387</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3202060646629235</v>
+        <v>0.3184466558624844</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3985307579621357</v>
+        <v>0.4013550257646505</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.487208447791603</v>
+        <v>0.4878261498773326</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1487446267050448</v>
+        <v>0.149616711086533</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2111209261225874</v>
+        <v>0.2140571822574686</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2572709685565976</v>
+        <v>0.2572829756330268</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4096808729918452</v>
+        <v>0.3939994200940604</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1527851958478253</v>
+        <v>0.146451651442723</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1760005809924374</v>
+        <v>0.1760776246608537</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2000605641351436</v>
+        <v>0.1988142132863019</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2882042845872975</v>
+        <v>0.2861314479527781</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2201112821375496</v>
+        <v>0.2238217857224816</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2186277829456216</v>
+        <v>0.219634252047033</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2557792113820875</v>
+        <v>0.2568813802964478</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.3841468803321646</v>
+        <v>0.3843142112367611</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.197317758903176</v>
+        <v>0.19470104163852</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3296050846654944</v>
+        <v>0.3290908568269049</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4080892165532525</v>
+        <v>0.4088950722816816</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5696659345538855</v>
+        <v>0.567257554486963</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2813352355616017</v>
+        <v>0.2800239343102582</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3328785214367502</v>
+        <v>0.3212076223260982</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3632145087771112</v>
+        <v>0.3688994682921802</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.461728717734768</v>
+        <v>0.4640368552796658</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3498026525123891</v>
+        <v>0.3530946204636355</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3085809514600921</v>
+        <v>0.3101829358664626</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3651580840838989</v>
+        <v>0.3687357735616966</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.5065204058452863</v>
+        <v>0.5014551783291623</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2932321060110538</v>
+        <v>0.2921796612844309</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.1741011961884396</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.3341778433745999</v>
+        <v>0.3341778433745998</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.2318866722546468</v>
@@ -969,7 +969,7 @@
         <v>0.1643257501872687</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.3552617937941602</v>
+        <v>0.3552617937941603</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1529001431889047</v>
+        <v>0.1481674877500652</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1225152381720081</v>
+        <v>0.1206903732737187</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1140700835403764</v>
+        <v>0.113684572538623</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2643040655372427</v>
+        <v>0.2629734515404193</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1573293155405886</v>
+        <v>0.1531644173206151</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1328840132477589</v>
+        <v>0.1264091246678747</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.08653949306794435</v>
+        <v>0.08951943814305605</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3054375877208632</v>
+        <v>0.3158312845602613</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1676465388990186</v>
+        <v>0.1724686697240785</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.141312106051376</v>
+        <v>0.1460206839016578</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1189824772854413</v>
+        <v>0.1149571979302234</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3030939663708677</v>
+        <v>0.2977092551050758</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2783328649446466</v>
+        <v>0.2782954976679211</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2478479348949275</v>
+        <v>0.2401663181753256</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2436082106916585</v>
+        <v>0.2528579147208457</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4122006012082749</v>
+        <v>0.4139685712425607</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3202111095358224</v>
+        <v>0.3256596015509423</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3126116214130243</v>
+        <v>0.3104406128317805</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2394475158875729</v>
+        <v>0.2396311077935389</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4652857412005182</v>
+        <v>0.4552334761440527</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2748236252677843</v>
+        <v>0.2733639995027081</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2525933438394537</v>
+        <v>0.2523323180279439</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2212419478349788</v>
+        <v>0.2158172204944886</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.4139672255106916</v>
+        <v>0.4125897021217664</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.2894001129366095</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2563919924297119</v>
+        <v>0.2563919924297118</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.1686548312245156</v>
@@ -1105,7 +1105,7 @@
         <v>0.3247340702032334</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.2748777071197907</v>
+        <v>0.2748777071197908</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2028403805023977</v>
+        <v>0.2047768603573446</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2552858816797264</v>
+        <v>0.2491581777619433</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2021833553318493</v>
+        <v>0.2116178040441546</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1775166649478117</v>
+        <v>0.1795888960757541</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1141772043300012</v>
+        <v>0.1122404198013422</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.198707611781695</v>
+        <v>0.2039493890067089</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2645177559654541</v>
+        <v>0.2771655473509631</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2341333742337507</v>
+        <v>0.2310582651512955</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1852567073828559</v>
+        <v>0.1874982280164332</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2514231164194771</v>
+        <v>0.2515991448991012</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2603741509722927</v>
+        <v>0.2611183297458514</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2203316728230611</v>
+        <v>0.2245655424821444</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3251442784617086</v>
+        <v>0.3235075070689666</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4158046393181417</v>
+        <v>0.4187326686451102</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3803639449524324</v>
+        <v>0.3832277247176775</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.337607335205963</v>
+        <v>0.3474700026539573</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2514322418671114</v>
+        <v>0.2442498613694879</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3856044589456368</v>
+        <v>0.393522383294113</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4857373140643714</v>
+        <v>0.496668027565508</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3655985526656123</v>
+        <v>0.3674961313585182</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2746258991273803</v>
+        <v>0.2742723075141034</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3717618233626317</v>
+        <v>0.3679359052413726</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3945331681662432</v>
+        <v>0.4022322773899589</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3302215911376407</v>
+        <v>0.3360099793603127</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1334690989605382</v>
+        <v>0.1362946205701794</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1227837267091151</v>
+        <v>0.1209688447693071</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1030519170246735</v>
+        <v>0.1074610274199528</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1103797231906689</v>
+        <v>0.112757291325749</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.06072557350465269</v>
+        <v>0.06188000410410242</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1054279955513182</v>
+        <v>0.1081046201665569</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.03662607081457293</v>
+        <v>0.04994801938821911</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.07340765538311127</v>
+        <v>0.07595590259461664</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.127339741450184</v>
+        <v>0.1319385752329429</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1375005142411662</v>
+        <v>0.1383613136842566</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.09574310748187846</v>
+        <v>0.09071684316990231</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.105818537947555</v>
+        <v>0.1045806306023988</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.302004122004099</v>
+        <v>0.2967513848413414</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2985625684984751</v>
+        <v>0.3067491459369643</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2915494037387605</v>
+        <v>0.3016109540405584</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.222296885696737</v>
+        <v>0.2212071855838162</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2742713975843128</v>
+        <v>0.2609317134270486</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3444830378785282</v>
+        <v>0.3447632862372795</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2056460185534633</v>
+        <v>0.2165612321629197</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1601172770570591</v>
+        <v>0.1632231559259346</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2559329670053775</v>
+        <v>0.2660791652827612</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2838614072514862</v>
+        <v>0.2826407938607697</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2240261749983183</v>
+        <v>0.2179445147358695</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1780194087885809</v>
+        <v>0.1793768250323304</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.2106476007332073</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.2456699205371811</v>
+        <v>0.2456699205371812</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.1738363408153064</v>
@@ -1365,7 +1365,7 @@
         <v>0.09827893676986579</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.3485117178906638</v>
+        <v>0.3485117178906639</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.237857673582608</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2040732533914495</v>
+        <v>0.2031948750801643</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2839137727624831</v>
+        <v>0.2855428724666119</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.141807782964607</v>
+        <v>0.1408475746038249</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1802269664527797</v>
+        <v>0.1818889955647832</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.09724466531055202</v>
+        <v>0.09988723148660653</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1679504288278628</v>
+        <v>0.1683431969582684</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.03973137479163483</v>
+        <v>0.04207957469796646</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2689364898813016</v>
+        <v>0.2714495557245326</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1874927182685776</v>
+        <v>0.1861557108623952</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2793584586531116</v>
+        <v>0.2738460513207668</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1142006467790042</v>
+        <v>0.112353301994572</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.2346299947330637</v>
+        <v>0.2358754626821767</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.3460957545712346</v>
+        <v>0.3488309983756754</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.4720274208659017</v>
+        <v>0.4752812989810529</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2969025010375222</v>
+        <v>0.3056875824910423</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3200692599649138</v>
+        <v>0.3165295589650874</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2605183420254801</v>
+        <v>0.27222967621716</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.4202594621343406</v>
+        <v>0.4251494957552303</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1794706561274497</v>
+        <v>0.1807896561456361</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.4390582073298492</v>
+        <v>0.4405769656102661</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2955491963195007</v>
+        <v>0.2980514469642966</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.4218411715818219</v>
+        <v>0.4211568454025663</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.2291283813299897</v>
+        <v>0.2233227106028647</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.339185607064197</v>
+        <v>0.339232985785717</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
         <v>0.2110443678868986</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.2274836791527175</v>
+        <v>0.2274836791527176</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2160865826065433</v>
+        <v>0.2142027257929816</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1525017770534595</v>
+        <v>0.1546023404004898</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1755556194741063</v>
+        <v>0.1744977651915396</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1733871615124647</v>
+        <v>0.1779032261120138</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1835731262869962</v>
+        <v>0.1827531864770416</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2006411661711301</v>
+        <v>0.1918730333369076</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1544223221434774</v>
+        <v>0.1526858714723771</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1940636638429237</v>
+        <v>0.1922528325810718</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2134332657614892</v>
+        <v>0.2192795117693526</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1857081145110877</v>
+        <v>0.1804250208382206</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1789830734639021</v>
+        <v>0.1794495847116036</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1956802047167365</v>
+        <v>0.196157911737558</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3191373371212624</v>
+        <v>0.3131019304771168</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.253095294657518</v>
+        <v>0.254621361553119</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2684892556197621</v>
+        <v>0.2684337703439296</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2696296346893133</v>
+        <v>0.2779210386297034</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3161826898608331</v>
+        <v>0.3169307270494842</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3339760087818022</v>
+        <v>0.3230856734349929</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2484079588197775</v>
+        <v>0.2489020655044025</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2744168202507097</v>
+        <v>0.2743033934969513</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2945909711198134</v>
+        <v>0.2956486245276059</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2637544450056571</v>
+        <v>0.2651858594412262</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.2459759951123258</v>
+        <v>0.2462448338241624</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2581634931232085</v>
+        <v>0.2587442623392974</v>
       </c>
     </row>
     <row r="25">
@@ -1637,7 +1637,7 @@
         <v>0.09021878677427259</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.1853290265355617</v>
+        <v>0.1853290265355618</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.2276448662328893</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.2008186520658479</v>
+        <v>0.1991637536960092</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.09682648079107349</v>
+        <v>0.09887186694856942</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.08712990503317332</v>
+        <v>0.08726379219279541</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1115041846127565</v>
+        <v>0.1150388958282795</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.1594878963325179</v>
+        <v>0.1592015802146563</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.08259694473084093</v>
+        <v>0.0827341885540774</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.05809797403510394</v>
+        <v>0.05660350366657019</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1493700666357304</v>
+        <v>0.1509482102593895</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1981467456696608</v>
+        <v>0.1960718141060401</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.1014587070189517</v>
+        <v>0.0998404251093868</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.08219523098395554</v>
+        <v>0.08265628949723469</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1348378336660293</v>
+        <v>0.1371138121314301</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2774951803592651</v>
+        <v>0.2800821704684777</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1714072586673392</v>
+        <v>0.1722780429372628</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1575295082673702</v>
+        <v>0.1615861267888396</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1832541707848283</v>
+        <v>0.1859303848564875</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.2644070742171226</v>
+        <v>0.264533616162409</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1716004351105319</v>
+        <v>0.1628783165623003</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1372976305100031</v>
+        <v>0.1327598460373116</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.2272921779282231</v>
+        <v>0.2307708340805633</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.2612194529561962</v>
+        <v>0.2591853216768759</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1552751918074449</v>
+        <v>0.1566067222290578</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.1351232655115531</v>
+        <v>0.13466499625633</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.192703478651633</v>
+        <v>0.1937577209612034</v>
       </c>
     </row>
     <row r="28">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.2297025264149159</v>
+        <v>0.2298580422979298</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.2125445471512885</v>
+        <v>0.2123155007848798</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.2247366512940046</v>
+        <v>0.2256379653639032</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.1808250150466162</v>
+        <v>0.1820829065135046</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.1915862714102577</v>
+        <v>0.1912913492706456</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.200763814709158</v>
+        <v>0.2001410953621193</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.1832841962573031</v>
+        <v>0.188551470116963</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.2108939069838283</v>
+        <v>0.2118009173695616</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.2238944680687245</v>
+        <v>0.2227381927725881</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.2139274417809307</v>
+        <v>0.2133683933722913</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.2142902127087856</v>
+        <v>0.2156582493256609</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.202258302193462</v>
+        <v>0.2005034921627875</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.2689433153474647</v>
+        <v>0.2708550109995698</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.2594660172766163</v>
+        <v>0.2573109262362364</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.2710664871548627</v>
+        <v>0.2719117447321361</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.2215816824503264</v>
+        <v>0.2209367630225918</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.2443945793325639</v>
+        <v>0.2435125915397502</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.2576924989807757</v>
+        <v>0.2608902432957688</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.23380201608937</v>
+        <v>0.2400859162336727</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.25122116085745</v>
+        <v>0.2510245173414424</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.2542072825524936</v>
+        <v>0.2548757393765992</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.2511997227915221</v>
+        <v>0.2507025203519887</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.2502240950755107</v>
+        <v>0.2501572597420076</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.2298435735211385</v>
+        <v>0.2295663546316475</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>32011</v>
+        <v>31206</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>29952</v>
+        <v>30660</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>45127</v>
+        <v>44159</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>16823</v>
+        <v>16966</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>20610</v>
+        <v>19738</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>21695</v>
+        <v>21302</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>31597</v>
+        <v>31521</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>11509</v>
+        <v>11184</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>58012</v>
+        <v>56595</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>56187</v>
+        <v>57801</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>82645</v>
+        <v>80653</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>31524</v>
+        <v>30695</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>55837</v>
+        <v>55049</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>51052</v>
+        <v>52192</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>70046</v>
+        <v>69070</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>34434</v>
+        <v>34636</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>38792</v>
+        <v>38009</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>39875</v>
+        <v>39988</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>51845</v>
+        <v>52243</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>22762</v>
+        <v>22487</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>87893</v>
+        <v>87410</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>84610</v>
+        <v>85210</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>113578</v>
+        <v>113722</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>52259</v>
+        <v>52565</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>57104</v>
+        <v>57898</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>44312</v>
+        <v>44314</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>69767</v>
+        <v>67097</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>35167</v>
+        <v>33709</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>23234</v>
+        <v>23244</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>24545</v>
+        <v>24392</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>32763</v>
+        <v>32527</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>35628</v>
+        <v>36228</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>87996</v>
+        <v>88401</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>75436</v>
+        <v>75762</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>109089</v>
+        <v>109136</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>77355</v>
+        <v>76329</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>89152</v>
+        <v>89013</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>70289</v>
+        <v>70428</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>97012</v>
+        <v>96602</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>64755</v>
+        <v>64454</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>43944</v>
+        <v>42403</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>44562</v>
+        <v>45260</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>52489</v>
+        <v>52752</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>56620</v>
+        <v>57153</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>124202</v>
+        <v>124846</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>107695</v>
+        <v>108751</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>143840</v>
+        <v>142402</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>114957</v>
+        <v>114544</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>26704</v>
+        <v>25877</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>17544</v>
+        <v>17283</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>13926</v>
+        <v>13879</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>38709</v>
+        <v>38514</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>14739</v>
+        <v>14349</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>10945</v>
+        <v>10412</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>7212</v>
+        <v>7460</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>36744</v>
+        <v>37994</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>44985</v>
+        <v>46279</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>31875</v>
+        <v>32937</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>24441</v>
+        <v>23614</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>80852</v>
+        <v>79415</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>48611</v>
+        <v>48604</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>35492</v>
+        <v>34392</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>29740</v>
+        <v>30869</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>60369</v>
+        <v>60628</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>29999</v>
+        <v>30509</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>25749</v>
+        <v>25570</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>19955</v>
+        <v>19970</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>55973</v>
+        <v>54764</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>73745</v>
+        <v>73353</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>56977</v>
+        <v>56918</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>45447</v>
+        <v>44333</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>110428</v>
+        <v>110060</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>45175</v>
+        <v>45606</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>36426</v>
+        <v>35552</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>22681</v>
+        <v>23739</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>37502</v>
+        <v>37940</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>15371</v>
+        <v>15111</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>20357</v>
+        <v>20894</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>21155</v>
+        <v>22167</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>41693</v>
+        <v>41145</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>66200</v>
+        <v>67001</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>61633</v>
+        <v>61676</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>50033</v>
+        <v>50176</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>85782</v>
+        <v>87431</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>72414</v>
+        <v>72049</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>59331</v>
+        <v>59749</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>42669</v>
+        <v>42990</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>71323</v>
+        <v>73407</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>33850</v>
+        <v>32883</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>39504</v>
+        <v>40316</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>38848</v>
+        <v>39722</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>65103</v>
+        <v>65441</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>98135</v>
+        <v>98009</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>91133</v>
+        <v>90195</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>75812</v>
+        <v>77292</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>128566</v>
+        <v>130820</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>14749</v>
+        <v>15061</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>10107</v>
+        <v>9957</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>8241</v>
+        <v>8594</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>14844</v>
+        <v>15164</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>2964</v>
+        <v>3020</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>5885</v>
+        <v>6035</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>2030</v>
+        <v>2768</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>8531</v>
+        <v>8827</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>20286</v>
+        <v>21018</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>18993</v>
+        <v>19112</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>12963</v>
+        <v>12282</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>26528</v>
+        <v>26218</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>33372</v>
+        <v>32792</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>24576</v>
+        <v>25250</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>23316</v>
+        <v>24121</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>29895</v>
+        <v>29748</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>13385</v>
+        <v>12734</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>19229</v>
+        <v>19245</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>11396</v>
+        <v>12001</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>18608</v>
+        <v>18969</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>40771</v>
+        <v>42387</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>39211</v>
+        <v>39042</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>30331</v>
+        <v>29508</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>44629</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>31418</v>
+        <v>31282</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>33300</v>
+        <v>33491</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>15102</v>
+        <v>15000</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>24113</v>
+        <v>24335</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>7884</v>
+        <v>8098</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>9286</v>
+        <v>9308</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>3002</v>
+        <v>3180</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>23246</v>
+        <v>23463</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>44066</v>
+        <v>43752</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>48212</v>
+        <v>47261</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>20792</v>
+        <v>20456</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>51672</v>
+        <v>51946</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>53282</v>
+        <v>53704</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>55364</v>
+        <v>55746</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>31620</v>
+        <v>32555</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>42822</v>
+        <v>42349</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>21122</v>
+        <v>22071</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>23237</v>
+        <v>23507</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>13562</v>
+        <v>13662</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>37951</v>
+        <v>38082</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>69462</v>
+        <v>70050</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>72802</v>
+        <v>72684</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>41717</v>
+        <v>40660</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>74698</v>
+        <v>74709</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>72051</v>
+        <v>71423</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>41466</v>
+        <v>42037</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>62049</v>
+        <v>61675</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>65554</v>
+        <v>67262</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>32800</v>
+        <v>32653</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>36550</v>
+        <v>34953</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>43486</v>
+        <v>42997</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>67980</v>
+        <v>67346</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>109301</v>
+        <v>112295</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>84325</v>
+        <v>81926</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>113664</v>
+        <v>113960</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>142529</v>
+        <v>142877</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>106412</v>
+        <v>104399</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>68818</v>
+        <v>69233</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>94896</v>
+        <v>94877</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>101942</v>
+        <v>105077</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>56494</v>
+        <v>56627</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>60839</v>
+        <v>58855</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>69953</v>
+        <v>70093</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>96127</v>
+        <v>96088</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>150863</v>
+        <v>151404</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>119764</v>
+        <v>120414</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>156208</v>
+        <v>156378</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>188041</v>
+        <v>188464</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>92007</v>
+        <v>91249</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>34880</v>
+        <v>35617</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>28476</v>
+        <v>28520</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>50332</v>
+        <v>51928</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>38114</v>
+        <v>38046</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>21360</v>
+        <v>21396</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>13781</v>
+        <v>13427</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>46330</v>
+        <v>46819</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>138136</v>
+        <v>136690</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>62787</v>
+        <v>61785</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>46361</v>
+        <v>46621</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>102687</v>
+        <v>104420</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>127138</v>
+        <v>128323</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>61746</v>
+        <v>62060</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>51485</v>
+        <v>52811</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>82719</v>
+        <v>83927</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>63188</v>
+        <v>63218</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>44377</v>
+        <v>42122</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>32568</v>
+        <v>31492</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>70499</v>
+        <v>71578</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>182107</v>
+        <v>180689</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>96091</v>
+        <v>96915</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>76214</v>
+        <v>75956</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>146755</v>
+        <v>147558</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>433770</v>
+        <v>434063</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>300897</v>
+        <v>300573</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>315609</v>
+        <v>316875</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>340979</v>
+        <v>343351</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>195005</v>
+        <v>194705</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>189898</v>
+        <v>189309</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>188208</v>
+        <v>193617</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>310991</v>
+        <v>312328</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>650691</v>
+        <v>647331</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>505204</v>
+        <v>503884</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>520986</v>
+        <v>524312</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>679652</v>
+        <v>673755</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>507872</v>
+        <v>511482</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>367323</v>
+        <v>364272</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>380673</v>
+        <v>381860</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>417833</v>
+        <v>416617</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>248755</v>
+        <v>247858</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>243746</v>
+        <v>246770</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>240083</v>
+        <v>246536</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>370459</v>
+        <v>370169</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>738787</v>
+        <v>740730</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>593225</v>
+        <v>592051</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>608349</v>
+        <v>608186</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>772347</v>
+        <v>771416</v>
       </c>
     </row>
     <row r="40">
